--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsLleraGarcia-RianoEliasUO271407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA51C17C-F5E0-4AF5-9491-D4E1502707CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B020B2A-73DD-4503-AB95-F998E5827FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>It is a good idea to put text files in the corresponding packages to avoid mix things. Session 1.1 is quite weak with two missing activities and without using the formulas to indicate if times meet the theorital values as expected</t>
+  </si>
+  <si>
+    <t>I would recommend just to use (left+right)/2 to get the central element. With only 2 values is not possible to estimate the complexities for Quicksort</t>
+  </si>
+  <si>
+    <t>There are some cases that fails to calculate the fake coin. If for example, you try in the main method to calculate the fake coin considering all the positions from 0 to 100 it fails many times</t>
   </si>
 </sst>
 </file>
@@ -287,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,16 +308,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -862,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -924,8 +927,12 @@
       <c r="B4" s="4">
         <v>5.75</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.5</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -933,23 +940,27 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4">
         <f>(B4+C4+D4+E4+F4+G4+H4+I4)/8</f>
-        <v>0.71875</v>
+        <v>2.34375</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -959,7 +970,7 @@
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -969,7 +980,7 @@
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -979,7 +990,7 @@
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -989,7 +1000,7 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -999,7 +1010,7 @@
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1009,7 +1020,7 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsLleraGarcia-RianoEliasUO271407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B020B2A-73DD-4503-AB95-F998E5827FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4140BB-3631-4F81-A4D0-8DA9F0D973C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>There are some cases that fails to calculate the fake coin. If for example, you try in the main method to calculate the fake coin considering all the positions from 0 to 100 it fails many times</t>
+  </si>
+  <si>
+    <t>Good but greedy2 missing</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -289,11 +292,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,21 +322,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -353,22 +384,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -529,13 +544,13 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lab 0, 1.1, 1.2" dataDxfId="8"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lab 2 (Sorting)" dataDxfId="7"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Lab 3 (D&amp;C)" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0">
-      <calculatedColumnFormula>(B4+C4+D4+E4+F4+G4+H4+I4)/8</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="1">
+      <calculatedColumnFormula>(B4+C4+D4+#REF!+E4+G4+H4+I4)/8</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -865,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -933,31 +948,35 @@
       <c r="D4" s="4">
         <v>6.5</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="F4" s="11"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <f>(B4+C4+D4+E4+F4+G4+H4+I4)/8</f>
-        <v>2.34375</v>
+      <c r="J4" s="4" t="e">
+        <f>(B4+C4+D4+#REF!+E4+G4+H4+I4)/8</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
@@ -1177,8 +1196,8 @@
     <mergeCell ref="C5:C12"/>
     <mergeCell ref="D5:D12"/>
     <mergeCell ref="E5:E12"/>
+    <mergeCell ref="G5:G12"/>
     <mergeCell ref="F5:F12"/>
-    <mergeCell ref="G5:G12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsLleraGarcia-RianoEliasUO271407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4140BB-3631-4F81-A4D0-8DA9F0D973C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9FDE2E-C59C-4F61-A532-7F3AA60163FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -322,6 +322,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -331,28 +332,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -432,6 +416,22 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -544,12 +544,12 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lab 0, 1.1, 1.2" dataDxfId="8"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lab 2 (Sorting)" dataDxfId="7"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Lab 3 (D&amp;C)" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0">
       <calculatedColumnFormula>(B4+C4+D4+#REF!+E4+G4+H4+I4)/8</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -881,7 +881,7 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E12"/>
+      <selection activeCell="F5" sqref="F5:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -951,7 +951,9 @@
       <c r="E4" s="4">
         <v>5.75</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="8">
+        <v>7</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -961,92 +963,92 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsLleraGarcia-RianoEliasUO271407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9FDE2E-C59C-4F61-A532-7F3AA60163FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB9A0C4-78C1-4C21-BC16-19DADE8458AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Final mark</t>
   </si>
   <si>
-    <t>Test mark</t>
-  </si>
-  <si>
     <t>Maximum possible marks in labs = 7</t>
   </si>
   <si>
@@ -196,13 +193,16 @@
   </si>
   <si>
     <t>Good but greedy2 missing</t>
+  </si>
+  <si>
+    <t>Unfortunately, not all the test cases work and the PDF report is not included. However, you did well during the courss, Elías</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -221,13 +221,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -307,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,10 +311,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -336,7 +326,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -352,22 +342,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -537,20 +511,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla14515" displayName="Tabla14515" ref="A3:J4" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A3:J4" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lab 0, 1.1, 1.2" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lab 2 (Sorting)" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Lab 3 (D&amp;C)" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla14515" displayName="Tabla14515" ref="A3:I4" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A3:I4" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lab 0, 1.1, 1.2" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lab 2 (Sorting)" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Lab 3 (D&amp;C)" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="1"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0">
-      <calculatedColumnFormula>(B4+C4+D4+#REF!+E4+G4+H4+I4)/8</calculatedColumnFormula>
+      <calculatedColumnFormula>(B4+C4+D4+E4+F4+G4+H4)/7*10/7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -878,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F12"/>
+      <selection activeCell="H5" sqref="H5:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -898,12 +871,12 @@
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,16 +901,13 @@
       <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>5.75</v>
@@ -951,124 +921,127 @@
       <c r="E4" s="4">
         <v>5.75</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>7</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="e">
-        <f>(B4+C4+D4+#REF!+E4+G4+H4+I4)/8</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+      <c r="I4" s="4">
+        <f>(B4+C4+D4+E4+F4+G4+H4)/7*10/7</f>
+        <v>7.0408163265306127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsLleraGarcia-RianoEliasUO271407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB9A0C4-78C1-4C21-BC16-19DADE8458AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14509600-F43A-47F3-8966-04F46AE595F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
     <t>Good but greedy2 missing</t>
   </si>
   <si>
-    <t>Unfortunately, not all the test cases work and the PDF report is not included. However, you did well during the courss, Elías</t>
+    <t>Unfortunately, not all the test cases work and the PDF report is not included. However, you did well during the course, Elías</t>
   </si>
 </sst>
 </file>
@@ -854,7 +854,7 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H12"/>
+      <selection activeCell="G5" sqref="G5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="8"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsLleraGarcia-RianoEliasUO271407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14509600-F43A-47F3-8966-04F46AE595F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A9664-4D37-48E7-8D7B-C2FE85357194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
     <t>Good but greedy2 missing</t>
   </si>
   <si>
-    <t>Unfortunately, not all the test cases work and the PDF report is not included. However, you did well during the course, Elías</t>
+    <t>The code is good although times are not the best. May be a little bit better. The theoretical complexity may be something like O(8^lengthoftheword * n^2) but with pruning it behaves like something quadratic</t>
   </si>
 </sst>
 </file>
@@ -925,12 +925,12 @@
         <v>7</v>
       </c>
       <c r="G4" s="4">
-        <v>3</v>
+        <v>6.25</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4">
         <f>(B4+C4+D4+E4+F4+G4+H4)/7*10/7</f>
-        <v>7.0408163265306127</v>
+        <v>7.7040816326530619</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsLleraGarcia-RianoEliasUO271407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A9664-4D37-48E7-8D7B-C2FE85357194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4E60FD-6EBC-4040-B215-BB5FCFBA884B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>The code is good although times are not the best. May be a little bit better. The theoretical complexity may be something like O(8^lengthoftheword * n^2) but with pruning it behaves like something quadratic</t>
+  </si>
+  <si>
+    <t>Not working…</t>
   </si>
 </sst>
 </file>
@@ -854,7 +857,7 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G12"/>
+      <selection activeCell="I5" sqref="I5:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -927,10 +930,12 @@
       <c r="G4" s="4">
         <v>6.25</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
       <c r="I4" s="4">
         <f>(B4+C4+D4+E4+F4+G4+H4)/7*10/7</f>
-        <v>7.7040816326530619</v>
+        <v>7.908163265306122</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -950,7 +955,9 @@
       <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
